--- a/DaZhongTransitionLiquidation/Template/AssetsLedger.xlsx
+++ b/DaZhongTransitionLiquidation/Template/AssetsLedger.xlsx
@@ -120,108 +120,82 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&amp;=[Business_AssetsLedger_Swap].BOOK_TYPE_CODE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsLedger_Swap].PERIOD_CODE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsLedger_Swap].TAG_NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsLedger_Swap].SALVAGE_PERCENT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsLedger_Swap].SALVAGE_VALUE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsLedger_Swap].CREATE_DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsLedger_Swap].DESCRIPTION</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsLedger_Swap].QUANTITY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsLedger_Swap].ASSET_CATEGORY_MAJOR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsLedger_Swap].ASSET_CATEGORY_MINOR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsLedger_Swap].ASSET_CREATION_DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsLedger_Swap].ASSET_COST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsLedger_Swap].SALVAGE_TYPE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsLedger_Swap].PTD_DEPRECIATION</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsLedger_Swap].YTD_DEPRECIATION</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsLedger_Swap].ACCT_DEPRECIATION</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsLedger_Swap].METHOD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsLedger_Swap].LIFE_MONTHS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsLedger_Swap].EXP_ACCOUNT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsLedger_Swap].FA_LOC_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsLedger_Swap].FA_LOC_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsLedger_Swap].FA_LOC_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsLedger_Swap].LAST_UPDATE_DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsLedger_Swap].CHANGE_DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsLedger_Swap].CREATE_USER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsLedger_Swap].CHANGE_USER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>&amp;=[AssetsLedger_Swap].BOOK_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsLedger_Swap].PERIOD_CODE</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsLedger_Swap].TAG_NUMBER</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsLedger_Swap].DESCRIPTION</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsLedger_Swap].QUANTITY</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsLedger_Swap].ASSET_CATEGORY_MAJOR</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsLedger_Swap].ASSET_CATEGORY_MINOR</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsLedger_Swap].ASSET_CREATION_DATE</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsLedger_Swap].ASSET_COST</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsLedger_Swap].SALVAGE_TYPE</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsLedger_Swap].SALVAGE_PERCENT</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsLedger_Swap].SALVAGE_VALUE</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsLedger_Swap].PTD_DEPRECIATION</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsLedger_Swap].YTD_DEPRECIATION</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsLedger_Swap].ACCT_DEPRECIATION</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsLedger_Swap].METHOD</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsLedger_Swap].LIFE_MONTHS</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsLedger_Swap].EXP_ACCOUNT</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsLedger_Swap].FA_LOC_1</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsLedger_Swap].FA_LOC_2</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsLedger_Swap].FA_LOC_3</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsLedger_Swap].LAST_UPDATE_DATE</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsLedger_Swap].CREATE_DATE</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsLedger_Swap].CHANGE_DATE</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsLedger_Swap].CREATE_USER</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsLedger_Swap].CHANGE_USER</t>
   </si>
 </sst>
 </file>
@@ -622,7 +596,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -732,64 +706,64 @@
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>49</v>
